--- a/cbreader2X/Nav/seeland_nav.xlsx
+++ b/cbreader2X/Nav/seeland_nav.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C5640-925C-498A-BFF4-EFFCFE0B7D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E237F6-8474-446B-B055-418ADEDC456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="2412" windowWidth="22884" windowHeight="6108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="684" windowWidth="23040" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>N0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
     <t>ZY47,ZY48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>HM19,HM21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>論文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -335,28 +343,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4796"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1228,7 +1233,9 @@
     </row>
     <row r="53" spans="1:7" s="2" customFormat="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1238,7 +1245,9 @@
     <row r="54" spans="1:7" s="2" customFormat="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -35601,7 +35610,7 @@
       <c r="A3903" s="5"/>
       <c r="B3903" s="5"/>
       <c r="C3903" s="5"/>
-      <c r="D3903" s="6"/>
+      <c r="D3903" s="4"/>
       <c r="E3903" s="5"/>
       <c r="F3903" s="5"/>
       <c r="G3903" s="5"/>
@@ -35620,7 +35629,7 @@
       <c r="B3905" s="5"/>
       <c r="C3905" s="5"/>
       <c r="D3905" s="5"/>
-      <c r="E3905" s="6"/>
+      <c r="E3905" s="4"/>
       <c r="F3905" s="5"/>
       <c r="G3905" s="5"/>
     </row>
@@ -35629,7 +35638,7 @@
       <c r="B3906" s="5"/>
       <c r="C3906" s="5"/>
       <c r="D3906" s="5"/>
-      <c r="E3906" s="6"/>
+      <c r="E3906" s="4"/>
       <c r="F3906" s="5"/>
       <c r="G3906" s="5"/>
     </row>
@@ -35638,7 +35647,7 @@
       <c r="B3907" s="5"/>
       <c r="C3907" s="5"/>
       <c r="D3907" s="5"/>
-      <c r="E3907" s="6"/>
+      <c r="E3907" s="4"/>
       <c r="F3907" s="5"/>
       <c r="G3907" s="5"/>
     </row>
@@ -35646,7 +35655,7 @@
       <c r="A3908" s="5"/>
       <c r="B3908" s="5"/>
       <c r="C3908" s="5"/>
-      <c r="D3908" s="6"/>
+      <c r="D3908" s="4"/>
       <c r="E3908" s="5"/>
       <c r="F3908" s="5"/>
       <c r="G3908" s="5"/>
@@ -35655,7 +35664,7 @@
       <c r="A3909" s="5"/>
       <c r="B3909" s="5"/>
       <c r="C3909" s="5"/>
-      <c r="D3909" s="6"/>
+      <c r="D3909" s="4"/>
       <c r="E3909" s="5"/>
       <c r="F3909" s="5"/>
       <c r="G3909" s="5"/>
@@ -35898,7 +35907,7 @@
       <c r="A3936" s="5"/>
       <c r="B3936" s="5"/>
       <c r="C3936" s="5"/>
-      <c r="D3936" s="6"/>
+      <c r="D3936" s="4"/>
       <c r="E3936" s="5"/>
       <c r="F3936" s="5"/>
       <c r="G3936" s="5"/>
@@ -35907,7 +35916,7 @@
       <c r="A3937" s="5"/>
       <c r="B3937" s="5"/>
       <c r="C3937" s="5"/>
-      <c r="D3937" s="6"/>
+      <c r="D3937" s="4"/>
       <c r="E3937" s="5"/>
       <c r="F3937" s="5"/>
       <c r="G3937" s="5"/>
@@ -35935,7 +35944,7 @@
       <c r="B3940" s="5"/>
       <c r="C3940" s="5"/>
       <c r="D3940" s="5"/>
-      <c r="E3940" s="6"/>
+      <c r="E3940" s="4"/>
       <c r="F3940" s="5"/>
       <c r="G3940" s="5"/>
     </row>
@@ -35944,7 +35953,7 @@
       <c r="B3941" s="5"/>
       <c r="C3941" s="5"/>
       <c r="D3941" s="5"/>
-      <c r="E3941" s="6"/>
+      <c r="E3941" s="4"/>
       <c r="F3941" s="5"/>
       <c r="G3941" s="5"/>
     </row>
@@ -35953,7 +35962,7 @@
       <c r="B3942" s="5"/>
       <c r="C3942" s="5"/>
       <c r="D3942" s="5"/>
-      <c r="E3942" s="6"/>
+      <c r="E3942" s="4"/>
       <c r="F3942" s="5"/>
       <c r="G3942" s="5"/>
     </row>
@@ -35961,7 +35970,7 @@
       <c r="A3943" s="5"/>
       <c r="B3943" s="5"/>
       <c r="C3943" s="5"/>
-      <c r="D3943" s="6"/>
+      <c r="D3943" s="4"/>
       <c r="E3943" s="5"/>
       <c r="F3943" s="5"/>
       <c r="G3943" s="5"/>
@@ -35970,7 +35979,7 @@
       <c r="A3944" s="5"/>
       <c r="B3944" s="5"/>
       <c r="C3944" s="5"/>
-      <c r="D3944" s="6"/>
+      <c r="D3944" s="4"/>
       <c r="E3944" s="5"/>
       <c r="F3944" s="5"/>
       <c r="G3944" s="5"/>
@@ -35989,7 +35998,7 @@
       <c r="B3946" s="5"/>
       <c r="C3946" s="5"/>
       <c r="D3946" s="5"/>
-      <c r="E3946" s="6"/>
+      <c r="E3946" s="4"/>
       <c r="F3946" s="5"/>
       <c r="G3946" s="5"/>
     </row>
@@ -35998,7 +36007,7 @@
       <c r="B3947" s="5"/>
       <c r="C3947" s="5"/>
       <c r="D3947" s="5"/>
-      <c r="E3947" s="6"/>
+      <c r="E3947" s="4"/>
       <c r="F3947" s="5"/>
       <c r="G3947" s="5"/>
     </row>
@@ -36007,7 +36016,7 @@
       <c r="B3948" s="5"/>
       <c r="C3948" s="5"/>
       <c r="D3948" s="5"/>
-      <c r="E3948" s="6"/>
+      <c r="E3948" s="4"/>
       <c r="F3948" s="5"/>
       <c r="G3948" s="5"/>
     </row>
@@ -36016,7 +36025,7 @@
       <c r="B3949" s="5"/>
       <c r="C3949" s="5"/>
       <c r="D3949" s="5"/>
-      <c r="E3949" s="6"/>
+      <c r="E3949" s="4"/>
       <c r="F3949" s="5"/>
       <c r="G3949" s="5"/>
     </row>
@@ -36025,7 +36034,7 @@
       <c r="B3950" s="5"/>
       <c r="C3950" s="5"/>
       <c r="D3950" s="5"/>
-      <c r="E3950" s="6"/>
+      <c r="E3950" s="4"/>
       <c r="F3950" s="5"/>
       <c r="G3950" s="5"/>
     </row>
@@ -36034,7 +36043,7 @@
       <c r="B3951" s="5"/>
       <c r="C3951" s="5"/>
       <c r="D3951" s="5"/>
-      <c r="E3951" s="6"/>
+      <c r="E3951" s="4"/>
       <c r="F3951" s="5"/>
       <c r="G3951" s="5"/>
     </row>
@@ -36043,7 +36052,7 @@
       <c r="B3952" s="5"/>
       <c r="C3952" s="5"/>
       <c r="D3952" s="5"/>
-      <c r="E3952" s="6"/>
+      <c r="E3952" s="4"/>
       <c r="F3952" s="5"/>
       <c r="G3952" s="5"/>
     </row>
@@ -36052,7 +36061,7 @@
       <c r="B3953" s="5"/>
       <c r="C3953" s="5"/>
       <c r="D3953" s="5"/>
-      <c r="E3953" s="6"/>
+      <c r="E3953" s="4"/>
       <c r="F3953" s="5"/>
       <c r="G3953" s="5"/>
     </row>
@@ -36061,7 +36070,7 @@
       <c r="B3954" s="5"/>
       <c r="C3954" s="5"/>
       <c r="D3954" s="5"/>
-      <c r="E3954" s="6"/>
+      <c r="E3954" s="4"/>
       <c r="F3954" s="5"/>
       <c r="G3954" s="5"/>
     </row>
@@ -36070,7 +36079,7 @@
       <c r="B3955" s="5"/>
       <c r="C3955" s="5"/>
       <c r="D3955" s="5"/>
-      <c r="E3955" s="6"/>
+      <c r="E3955" s="4"/>
       <c r="F3955" s="5"/>
       <c r="G3955" s="5"/>
     </row>
@@ -36079,7 +36088,7 @@
       <c r="B3956" s="5"/>
       <c r="C3956" s="5"/>
       <c r="D3956" s="5"/>
-      <c r="E3956" s="6"/>
+      <c r="E3956" s="4"/>
       <c r="F3956" s="5"/>
       <c r="G3956" s="5"/>
     </row>
@@ -36088,7 +36097,7 @@
       <c r="B3957" s="5"/>
       <c r="C3957" s="5"/>
       <c r="D3957" s="5"/>
-      <c r="E3957" s="6"/>
+      <c r="E3957" s="4"/>
       <c r="F3957" s="5"/>
       <c r="G3957" s="5"/>
     </row>
@@ -36097,7 +36106,7 @@
       <c r="B3958" s="5"/>
       <c r="C3958" s="5"/>
       <c r="D3958" s="5"/>
-      <c r="E3958" s="6"/>
+      <c r="E3958" s="4"/>
       <c r="F3958" s="5"/>
       <c r="G3958" s="5"/>
     </row>
@@ -36204,7 +36213,7 @@
       <c r="A3970" s="5"/>
       <c r="B3970" s="5"/>
       <c r="C3970" s="5"/>
-      <c r="D3970" s="6"/>
+      <c r="D3970" s="4"/>
       <c r="E3970" s="5"/>
       <c r="F3970" s="5"/>
       <c r="G3970" s="5"/>
@@ -36213,7 +36222,7 @@
       <c r="A3971" s="5"/>
       <c r="B3971" s="5"/>
       <c r="C3971" s="5"/>
-      <c r="D3971" s="6"/>
+      <c r="D3971" s="4"/>
       <c r="E3971" s="5"/>
       <c r="F3971" s="5"/>
       <c r="G3971" s="5"/>
@@ -36241,7 +36250,7 @@
       <c r="B3974" s="5"/>
       <c r="C3974" s="5"/>
       <c r="D3974" s="5"/>
-      <c r="E3974" s="6"/>
+      <c r="E3974" s="4"/>
       <c r="F3974" s="5"/>
       <c r="G3974" s="5"/>
     </row>
@@ -36250,7 +36259,7 @@
       <c r="B3975" s="5"/>
       <c r="C3975" s="5"/>
       <c r="D3975" s="5"/>
-      <c r="E3975" s="6"/>
+      <c r="E3975" s="4"/>
       <c r="F3975" s="5"/>
       <c r="G3975" s="5"/>
     </row>
@@ -36259,7 +36268,7 @@
       <c r="B3976" s="5"/>
       <c r="C3976" s="5"/>
       <c r="D3976" s="5"/>
-      <c r="E3976" s="6"/>
+      <c r="E3976" s="4"/>
       <c r="F3976" s="5"/>
       <c r="G3976" s="5"/>
     </row>
@@ -36267,7 +36276,7 @@
       <c r="A3977" s="5"/>
       <c r="B3977" s="5"/>
       <c r="C3977" s="5"/>
-      <c r="D3977" s="6"/>
+      <c r="D3977" s="4"/>
       <c r="E3977" s="5"/>
       <c r="F3977" s="5"/>
       <c r="G3977" s="5"/>
@@ -36276,7 +36285,7 @@
       <c r="A3978" s="5"/>
       <c r="B3978" s="5"/>
       <c r="C3978" s="5"/>
-      <c r="D3978" s="6"/>
+      <c r="D3978" s="4"/>
       <c r="E3978" s="5"/>
       <c r="F3978" s="5"/>
       <c r="G3978" s="5"/>
@@ -36447,7 +36456,7 @@
       <c r="A3997" s="5"/>
       <c r="B3997" s="5"/>
       <c r="C3997" s="5"/>
-      <c r="D3997" s="6"/>
+      <c r="D3997" s="4"/>
       <c r="E3997" s="5"/>
       <c r="F3997" s="5"/>
       <c r="G3997" s="5"/>
@@ -36456,7 +36465,7 @@
       <c r="A3998" s="5"/>
       <c r="B3998" s="5"/>
       <c r="C3998" s="5"/>
-      <c r="D3998" s="6"/>
+      <c r="D3998" s="4"/>
       <c r="E3998" s="5"/>
       <c r="F3998" s="5"/>
       <c r="G3998" s="5"/>
@@ -36475,7 +36484,7 @@
       <c r="B4000" s="5"/>
       <c r="C4000" s="5"/>
       <c r="D4000" s="5"/>
-      <c r="E4000" s="6"/>
+      <c r="E4000" s="4"/>
       <c r="F4000" s="5"/>
       <c r="G4000" s="5"/>
     </row>
@@ -36484,7 +36493,7 @@
       <c r="B4001" s="5"/>
       <c r="C4001" s="5"/>
       <c r="D4001" s="5"/>
-      <c r="E4001" s="6"/>
+      <c r="E4001" s="4"/>
       <c r="F4001" s="5"/>
       <c r="G4001" s="5"/>
     </row>
@@ -36492,7 +36501,7 @@
       <c r="A4002" s="5"/>
       <c r="B4002" s="5"/>
       <c r="C4002" s="5"/>
-      <c r="D4002" s="6"/>
+      <c r="D4002" s="4"/>
       <c r="E4002" s="5"/>
       <c r="F4002" s="5"/>
       <c r="G4002" s="5"/>
@@ -36520,7 +36529,7 @@
       <c r="B4005" s="5"/>
       <c r="C4005" s="5"/>
       <c r="D4005" s="5"/>
-      <c r="E4005" s="6"/>
+      <c r="E4005" s="4"/>
       <c r="F4005" s="5"/>
       <c r="G4005" s="5"/>
     </row>
@@ -36529,7 +36538,7 @@
       <c r="B4006" s="5"/>
       <c r="C4006" s="5"/>
       <c r="D4006" s="5"/>
-      <c r="E4006" s="6"/>
+      <c r="E4006" s="4"/>
       <c r="F4006" s="5"/>
       <c r="G4006" s="5"/>
     </row>
@@ -36538,7 +36547,7 @@
       <c r="B4007" s="5"/>
       <c r="C4007" s="5"/>
       <c r="D4007" s="5"/>
-      <c r="E4007" s="6"/>
+      <c r="E4007" s="4"/>
       <c r="F4007" s="5"/>
       <c r="G4007" s="5"/>
     </row>
@@ -36546,7 +36555,7 @@
       <c r="A4008" s="5"/>
       <c r="B4008" s="5"/>
       <c r="C4008" s="5"/>
-      <c r="D4008" s="7"/>
+      <c r="D4008" s="6"/>
       <c r="E4008" s="5"/>
       <c r="F4008" s="5"/>
       <c r="G4008" s="5"/>
@@ -36555,7 +36564,7 @@
       <c r="A4009" s="5"/>
       <c r="B4009" s="5"/>
       <c r="C4009" s="5"/>
-      <c r="D4009" s="7"/>
+      <c r="D4009" s="6"/>
       <c r="E4009" s="5"/>
       <c r="F4009" s="5"/>
       <c r="G4009" s="5"/>
@@ -36726,7 +36735,7 @@
       <c r="A4028" s="5"/>
       <c r="B4028" s="5"/>
       <c r="C4028" s="5"/>
-      <c r="D4028" s="7"/>
+      <c r="D4028" s="6"/>
       <c r="E4028" s="5"/>
       <c r="F4028" s="5"/>
       <c r="G4028" s="5"/>
@@ -36735,7 +36744,7 @@
       <c r="A4029" s="5"/>
       <c r="B4029" s="5"/>
       <c r="C4029" s="5"/>
-      <c r="D4029" s="7"/>
+      <c r="D4029" s="6"/>
       <c r="E4029" s="5"/>
       <c r="F4029" s="5"/>
       <c r="G4029" s="5"/>
@@ -36744,7 +36753,7 @@
       <c r="A4030" s="5"/>
       <c r="B4030" s="5"/>
       <c r="C4030" s="5"/>
-      <c r="D4030" s="7"/>
+      <c r="D4030" s="6"/>
       <c r="E4030" s="5"/>
       <c r="F4030" s="5"/>
       <c r="G4030" s="5"/>
@@ -36753,7 +36762,7 @@
       <c r="A4031" s="5"/>
       <c r="B4031" s="5"/>
       <c r="C4031" s="5"/>
-      <c r="D4031" s="7"/>
+      <c r="D4031" s="6"/>
       <c r="E4031" s="5"/>
       <c r="F4031" s="5"/>
       <c r="G4031" s="5"/>
@@ -36763,7 +36772,7 @@
       <c r="B4032" s="5"/>
       <c r="C4032" s="5"/>
       <c r="D4032" s="5"/>
-      <c r="E4032" s="6"/>
+      <c r="E4032" s="4"/>
       <c r="F4032" s="5"/>
       <c r="G4032" s="5"/>
     </row>
@@ -36772,7 +36781,7 @@
       <c r="B4033" s="5"/>
       <c r="C4033" s="5"/>
       <c r="D4033" s="5"/>
-      <c r="E4033" s="6"/>
+      <c r="E4033" s="4"/>
       <c r="F4033" s="5"/>
       <c r="G4033" s="5"/>
     </row>
@@ -36799,7 +36808,7 @@
       <c r="B4036" s="5"/>
       <c r="C4036" s="5"/>
       <c r="D4036" s="5"/>
-      <c r="E4036" s="6"/>
+      <c r="E4036" s="4"/>
       <c r="F4036" s="5"/>
       <c r="G4036" s="5"/>
     </row>
@@ -36808,7 +36817,7 @@
       <c r="B4037" s="5"/>
       <c r="C4037" s="5"/>
       <c r="D4037" s="5"/>
-      <c r="E4037" s="6"/>
+      <c r="E4037" s="4"/>
       <c r="F4037" s="5"/>
       <c r="G4037" s="5"/>
     </row>
@@ -36817,7 +36826,7 @@
       <c r="B4038" s="5"/>
       <c r="C4038" s="5"/>
       <c r="D4038" s="5"/>
-      <c r="E4038" s="6"/>
+      <c r="E4038" s="4"/>
       <c r="F4038" s="5"/>
       <c r="G4038" s="5"/>
     </row>
@@ -36825,7 +36834,7 @@
       <c r="A4039" s="5"/>
       <c r="B4039" s="5"/>
       <c r="C4039" s="5"/>
-      <c r="D4039" s="7"/>
+      <c r="D4039" s="6"/>
       <c r="E4039" s="5"/>
       <c r="F4039" s="5"/>
       <c r="G4039" s="5"/>
@@ -36834,7 +36843,7 @@
       <c r="A4040" s="5"/>
       <c r="B4040" s="5"/>
       <c r="C4040" s="5"/>
-      <c r="D4040" s="7"/>
+      <c r="D4040" s="6"/>
       <c r="E4040" s="5"/>
       <c r="F4040" s="5"/>
       <c r="G4040" s="5"/>
@@ -36924,7 +36933,7 @@
       <c r="A4050" s="5"/>
       <c r="B4050" s="5"/>
       <c r="C4050" s="5"/>
-      <c r="D4050" s="7"/>
+      <c r="D4050" s="6"/>
       <c r="E4050" s="5"/>
       <c r="F4050" s="5"/>
       <c r="G4050" s="5"/>
@@ -36933,7 +36942,7 @@
       <c r="A4051" s="5"/>
       <c r="B4051" s="5"/>
       <c r="C4051" s="5"/>
-      <c r="D4051" s="7"/>
+      <c r="D4051" s="6"/>
       <c r="E4051" s="5"/>
       <c r="F4051" s="5"/>
       <c r="G4051" s="5"/>
@@ -36942,7 +36951,7 @@
       <c r="A4052" s="5"/>
       <c r="B4052" s="5"/>
       <c r="C4052" s="5"/>
-      <c r="D4052" s="7"/>
+      <c r="D4052" s="6"/>
       <c r="E4052" s="5"/>
       <c r="F4052" s="5"/>
       <c r="G4052" s="5"/>
@@ -36951,8 +36960,8 @@
       <c r="A4053" s="5"/>
       <c r="B4053" s="5"/>
       <c r="C4053" s="5"/>
-      <c r="D4053" s="7"/>
-      <c r="E4053" s="6"/>
+      <c r="D4053" s="6"/>
+      <c r="E4053" s="4"/>
       <c r="F4053" s="5"/>
       <c r="G4053" s="5"/>
     </row>
@@ -36961,7 +36970,7 @@
       <c r="B4054" s="5"/>
       <c r="C4054" s="5"/>
       <c r="D4054" s="5"/>
-      <c r="E4054" s="6"/>
+      <c r="E4054" s="4"/>
       <c r="F4054" s="5"/>
       <c r="G4054" s="5"/>
     </row>
@@ -36988,7 +36997,7 @@
       <c r="B4057" s="5"/>
       <c r="C4057" s="5"/>
       <c r="D4057" s="5"/>
-      <c r="E4057" s="6"/>
+      <c r="E4057" s="4"/>
       <c r="F4057" s="5"/>
       <c r="G4057" s="5"/>
     </row>
@@ -36997,7 +37006,7 @@
       <c r="B4058" s="5"/>
       <c r="C4058" s="5"/>
       <c r="D4058" s="5"/>
-      <c r="E4058" s="6"/>
+      <c r="E4058" s="4"/>
       <c r="F4058" s="5"/>
       <c r="G4058" s="5"/>
     </row>
@@ -37006,7 +37015,7 @@
       <c r="B4059" s="5"/>
       <c r="C4059" s="5"/>
       <c r="D4059" s="5"/>
-      <c r="E4059" s="6"/>
+      <c r="E4059" s="4"/>
       <c r="F4059" s="5"/>
       <c r="G4059" s="5"/>
     </row>
@@ -37014,7 +37023,7 @@
       <c r="A4060" s="5"/>
       <c r="B4060" s="5"/>
       <c r="C4060" s="5"/>
-      <c r="D4060" s="7"/>
+      <c r="D4060" s="6"/>
       <c r="E4060" s="5"/>
       <c r="F4060" s="5"/>
       <c r="G4060" s="5"/>
@@ -37023,7 +37032,7 @@
       <c r="A4061" s="5"/>
       <c r="B4061" s="5"/>
       <c r="C4061" s="5"/>
-      <c r="D4061" s="7"/>
+      <c r="D4061" s="6"/>
       <c r="E4061" s="5"/>
       <c r="F4061" s="5"/>
       <c r="G4061" s="5"/>
@@ -37122,7 +37131,7 @@
       <c r="A4072" s="5"/>
       <c r="B4072" s="5"/>
       <c r="C4072" s="5"/>
-      <c r="D4072" s="7"/>
+      <c r="D4072" s="6"/>
       <c r="E4072" s="5"/>
       <c r="F4072" s="5"/>
       <c r="G4072" s="5"/>
@@ -37131,7 +37140,7 @@
       <c r="A4073" s="5"/>
       <c r="B4073" s="5"/>
       <c r="C4073" s="5"/>
-      <c r="D4073" s="7"/>
+      <c r="D4073" s="6"/>
       <c r="E4073" s="5"/>
       <c r="F4073" s="5"/>
       <c r="G4073" s="5"/>
@@ -37140,7 +37149,7 @@
       <c r="A4074" s="5"/>
       <c r="B4074" s="5"/>
       <c r="C4074" s="5"/>
-      <c r="D4074" s="7"/>
+      <c r="D4074" s="6"/>
       <c r="E4074" s="5"/>
       <c r="F4074" s="5"/>
       <c r="G4074" s="5"/>
@@ -37149,8 +37158,8 @@
       <c r="A4075" s="5"/>
       <c r="B4075" s="5"/>
       <c r="C4075" s="5"/>
-      <c r="D4075" s="7"/>
-      <c r="E4075" s="6"/>
+      <c r="D4075" s="6"/>
+      <c r="E4075" s="4"/>
       <c r="F4075" s="5"/>
       <c r="G4075" s="5"/>
     </row>
@@ -37159,7 +37168,7 @@
       <c r="B4076" s="5"/>
       <c r="C4076" s="5"/>
       <c r="D4076" s="5"/>
-      <c r="E4076" s="6"/>
+      <c r="E4076" s="4"/>
       <c r="F4076" s="5"/>
       <c r="G4076" s="5"/>
     </row>
@@ -37186,7 +37195,7 @@
       <c r="B4079" s="5"/>
       <c r="C4079" s="5"/>
       <c r="D4079" s="5"/>
-      <c r="E4079" s="6"/>
+      <c r="E4079" s="4"/>
       <c r="F4079" s="5"/>
       <c r="G4079" s="5"/>
     </row>
@@ -37195,7 +37204,7 @@
       <c r="B4080" s="5"/>
       <c r="C4080" s="5"/>
       <c r="D4080" s="5"/>
-      <c r="E4080" s="6"/>
+      <c r="E4080" s="4"/>
       <c r="F4080" s="5"/>
       <c r="G4080" s="5"/>
     </row>
@@ -37204,7 +37213,7 @@
       <c r="B4081" s="5"/>
       <c r="C4081" s="5"/>
       <c r="D4081" s="5"/>
-      <c r="E4081" s="6"/>
+      <c r="E4081" s="4"/>
       <c r="F4081" s="5"/>
       <c r="G4081" s="5"/>
     </row>
@@ -37212,7 +37221,7 @@
       <c r="A4082" s="5"/>
       <c r="B4082" s="5"/>
       <c r="C4082" s="5"/>
-      <c r="D4082" s="7"/>
+      <c r="D4082" s="6"/>
       <c r="E4082" s="5"/>
       <c r="F4082" s="5"/>
       <c r="G4082" s="5"/>
@@ -37221,7 +37230,7 @@
       <c r="A4083" s="5"/>
       <c r="B4083" s="5"/>
       <c r="C4083" s="5"/>
-      <c r="D4083" s="7"/>
+      <c r="D4083" s="6"/>
       <c r="E4083" s="5"/>
       <c r="F4083" s="5"/>
       <c r="G4083" s="5"/>
@@ -37437,7 +37446,7 @@
       <c r="A4107" s="5"/>
       <c r="B4107" s="5"/>
       <c r="C4107" s="5"/>
-      <c r="D4107" s="7"/>
+      <c r="D4107" s="6"/>
       <c r="E4107" s="5"/>
       <c r="F4107" s="5"/>
       <c r="G4107" s="5"/>
@@ -37446,7 +37455,7 @@
       <c r="A4108" s="5"/>
       <c r="B4108" s="5"/>
       <c r="C4108" s="5"/>
-      <c r="D4108" s="7"/>
+      <c r="D4108" s="6"/>
       <c r="E4108" s="5"/>
       <c r="F4108" s="5"/>
       <c r="G4108" s="5"/>
@@ -37464,7 +37473,7 @@
       <c r="A4110" s="5"/>
       <c r="B4110" s="5"/>
       <c r="C4110" s="5"/>
-      <c r="D4110" s="7"/>
+      <c r="D4110" s="6"/>
       <c r="E4110" s="5"/>
       <c r="F4110" s="5"/>
       <c r="G4110" s="5"/>
@@ -37473,7 +37482,7 @@
       <c r="A4111" s="5"/>
       <c r="B4111" s="5"/>
       <c r="C4111" s="5"/>
-      <c r="D4111" s="7"/>
+      <c r="D4111" s="6"/>
       <c r="E4111" s="5"/>
       <c r="F4111" s="5"/>
       <c r="G4111" s="5"/>
@@ -37483,7 +37492,7 @@
       <c r="B4112" s="5"/>
       <c r="C4112" s="5"/>
       <c r="D4112" s="5"/>
-      <c r="E4112" s="7"/>
+      <c r="E4112" s="6"/>
       <c r="F4112" s="5"/>
       <c r="G4112" s="5"/>
     </row>
@@ -37492,7 +37501,7 @@
       <c r="B4113" s="5"/>
       <c r="C4113" s="5"/>
       <c r="D4113" s="5"/>
-      <c r="E4113" s="7"/>
+      <c r="E4113" s="6"/>
       <c r="F4113" s="5"/>
       <c r="G4113" s="5"/>
     </row>
@@ -37501,7 +37510,7 @@
       <c r="B4114" s="5"/>
       <c r="C4114" s="5"/>
       <c r="D4114" s="5"/>
-      <c r="E4114" s="7"/>
+      <c r="E4114" s="6"/>
       <c r="F4114" s="5"/>
       <c r="G4114" s="5"/>
     </row>
@@ -37590,7 +37599,7 @@
       <c r="A4124" s="5"/>
       <c r="B4124" s="5"/>
       <c r="C4124" s="5"/>
-      <c r="D4124" s="7"/>
+      <c r="D4124" s="6"/>
       <c r="E4124" s="5"/>
       <c r="F4124" s="5"/>
       <c r="G4124" s="5"/>
@@ -37599,7 +37608,7 @@
       <c r="A4125" s="5"/>
       <c r="B4125" s="5"/>
       <c r="C4125" s="5"/>
-      <c r="D4125" s="7"/>
+      <c r="D4125" s="6"/>
       <c r="E4125" s="5"/>
       <c r="F4125" s="5"/>
       <c r="G4125" s="5"/>
@@ -37608,7 +37617,7 @@
       <c r="A4126" s="5"/>
       <c r="B4126" s="5"/>
       <c r="C4126" s="5"/>
-      <c r="D4126" s="7"/>
+      <c r="D4126" s="6"/>
       <c r="E4126" s="5"/>
       <c r="F4126" s="5"/>
       <c r="G4126" s="5"/>
@@ -37626,7 +37635,7 @@
       <c r="A4128" s="5"/>
       <c r="B4128" s="5"/>
       <c r="C4128" s="5"/>
-      <c r="D4128" s="7"/>
+      <c r="D4128" s="6"/>
       <c r="E4128" s="5"/>
       <c r="F4128" s="5"/>
       <c r="G4128" s="5"/>
@@ -37635,7 +37644,7 @@
       <c r="A4129" s="5"/>
       <c r="B4129" s="5"/>
       <c r="C4129" s="5"/>
-      <c r="D4129" s="7"/>
+      <c r="D4129" s="6"/>
       <c r="E4129" s="5"/>
       <c r="F4129" s="5"/>
       <c r="G4129" s="5"/>
@@ -37645,7 +37654,7 @@
       <c r="B4130" s="5"/>
       <c r="C4130" s="5"/>
       <c r="D4130" s="5"/>
-      <c r="E4130" s="7"/>
+      <c r="E4130" s="6"/>
       <c r="F4130" s="5"/>
       <c r="G4130" s="5"/>
     </row>
@@ -37654,7 +37663,7 @@
       <c r="B4131" s="5"/>
       <c r="C4131" s="5"/>
       <c r="D4131" s="5"/>
-      <c r="E4131" s="7"/>
+      <c r="E4131" s="6"/>
       <c r="F4131" s="5"/>
       <c r="G4131" s="5"/>
     </row>
@@ -37663,7 +37672,7 @@
       <c r="B4132" s="5"/>
       <c r="C4132" s="5"/>
       <c r="D4132" s="5"/>
-      <c r="E4132" s="7"/>
+      <c r="E4132" s="6"/>
       <c r="F4132" s="5"/>
       <c r="G4132" s="5"/>
     </row>
@@ -37824,7 +37833,7 @@
       <c r="A4150" s="5"/>
       <c r="B4150" s="5"/>
       <c r="C4150" s="5"/>
-      <c r="D4150" s="7"/>
+      <c r="D4150" s="6"/>
       <c r="E4150" s="5"/>
       <c r="F4150" s="5"/>
       <c r="G4150" s="5"/>
@@ -37833,7 +37842,7 @@
       <c r="A4151" s="5"/>
       <c r="B4151" s="5"/>
       <c r="C4151" s="5"/>
-      <c r="D4151" s="7"/>
+      <c r="D4151" s="6"/>
       <c r="E4151" s="5"/>
       <c r="F4151" s="5"/>
       <c r="G4151" s="5"/>
@@ -37842,7 +37851,7 @@
       <c r="A4152" s="5"/>
       <c r="B4152" s="5"/>
       <c r="C4152" s="5"/>
-      <c r="D4152" s="7"/>
+      <c r="D4152" s="6"/>
       <c r="E4152" s="5"/>
       <c r="F4152" s="5"/>
       <c r="G4152" s="5"/>
@@ -37851,7 +37860,7 @@
       <c r="A4153" s="5"/>
       <c r="B4153" s="5"/>
       <c r="C4153" s="5"/>
-      <c r="D4153" s="7"/>
+      <c r="D4153" s="6"/>
       <c r="E4153" s="5"/>
       <c r="F4153" s="5"/>
       <c r="G4153" s="5"/>
@@ -37859,7 +37868,7 @@
     <row r="4155" spans="1:7" s="3" customFormat="1">
       <c r="A4155" s="5"/>
       <c r="B4155" s="5"/>
-      <c r="C4155" s="6"/>
+      <c r="C4155" s="4"/>
       <c r="D4155" s="5"/>
       <c r="E4155" s="5"/>
       <c r="F4155" s="5"/>
@@ -37868,7 +37877,7 @@
     <row r="4156" spans="1:7" s="3" customFormat="1">
       <c r="A4156" s="5"/>
       <c r="B4156" s="5"/>
-      <c r="C4156" s="6"/>
+      <c r="C4156" s="4"/>
       <c r="D4156" s="5"/>
       <c r="E4156" s="5"/>
       <c r="F4156" s="5"/>
@@ -37877,7 +37886,7 @@
     <row r="4157" spans="1:7" s="3" customFormat="1">
       <c r="A4157" s="5"/>
       <c r="B4157" s="5"/>
-      <c r="C4157" s="6"/>
+      <c r="C4157" s="4"/>
       <c r="D4157" s="5"/>
       <c r="E4157" s="5"/>
       <c r="F4157" s="5"/>
@@ -37886,7 +37895,7 @@
     <row r="4158" spans="1:7" s="3" customFormat="1">
       <c r="A4158" s="5"/>
       <c r="B4158" s="5"/>
-      <c r="C4158" s="6"/>
+      <c r="C4158" s="4"/>
       <c r="D4158" s="5"/>
       <c r="E4158" s="5"/>
       <c r="F4158" s="5"/>
@@ -37904,7 +37913,7 @@
     <row r="4161" spans="1:7" s="3" customFormat="1">
       <c r="A4161" s="5"/>
       <c r="B4161" s="5"/>
-      <c r="C4161" s="6"/>
+      <c r="C4161" s="4"/>
       <c r="D4161" s="5"/>
       <c r="E4161" s="5"/>
       <c r="F4161" s="5"/>
@@ -39775,8 +39784,8 @@
     </row>
     <row r="4370" spans="1:7" s="3" customFormat="1">
       <c r="A4370" s="5"/>
-      <c r="B4370" s="6"/>
-      <c r="C4370" s="6"/>
+      <c r="B4370" s="4"/>
+      <c r="C4370" s="4"/>
       <c r="D4370" s="5"/>
       <c r="E4370" s="5"/>
       <c r="F4370" s="5"/>
@@ -39784,8 +39793,8 @@
     </row>
     <row r="4371" spans="1:7" s="3" customFormat="1">
       <c r="A4371" s="5"/>
-      <c r="B4371" s="6"/>
-      <c r="C4371" s="6"/>
+      <c r="B4371" s="4"/>
+      <c r="C4371" s="4"/>
       <c r="D4371" s="5"/>
       <c r="E4371" s="5"/>
       <c r="F4371" s="5"/>
@@ -39794,7 +39803,7 @@
     <row r="4372" spans="1:7" s="3" customFormat="1">
       <c r="A4372" s="5"/>
       <c r="B4372" s="5"/>
-      <c r="C4372" s="6"/>
+      <c r="C4372" s="4"/>
       <c r="D4372" s="5"/>
       <c r="E4372" s="5"/>
       <c r="F4372" s="5"/>
@@ -39804,7 +39813,7 @@
       <c r="A4373" s="5"/>
       <c r="B4373" s="5"/>
       <c r="C4373" s="5"/>
-      <c r="D4373" s="8"/>
+      <c r="D4373" s="7"/>
       <c r="E4373" s="5"/>
       <c r="F4373" s="5"/>
       <c r="G4373" s="5"/>
@@ -39812,7 +39821,7 @@
     <row r="4374" spans="1:7" s="3" customFormat="1">
       <c r="A4374" s="5"/>
       <c r="B4374" s="5"/>
-      <c r="C4374" s="6"/>
+      <c r="C4374" s="4"/>
       <c r="D4374" s="5"/>
       <c r="E4374" s="5"/>
       <c r="F4374" s="5"/>
@@ -39821,8 +39830,8 @@
     <row r="4375" spans="1:7" s="3" customFormat="1">
       <c r="A4375" s="5"/>
       <c r="B4375" s="5"/>
-      <c r="C4375" s="6"/>
-      <c r="D4375" s="6"/>
+      <c r="C4375" s="4"/>
+      <c r="D4375" s="4"/>
       <c r="E4375" s="5"/>
       <c r="F4375" s="5"/>
       <c r="G4375" s="5"/>
@@ -39831,7 +39840,7 @@
       <c r="A4376" s="5"/>
       <c r="B4376" s="5"/>
       <c r="C4376" s="5"/>
-      <c r="D4376" s="8"/>
+      <c r="D4376" s="7"/>
       <c r="E4376" s="5"/>
       <c r="F4376" s="5"/>
       <c r="G4376" s="5"/>
@@ -39849,7 +39858,7 @@
       <c r="A4378" s="5"/>
       <c r="B4378" s="5"/>
       <c r="C4378" s="5"/>
-      <c r="D4378" s="6"/>
+      <c r="D4378" s="4"/>
       <c r="E4378" s="5"/>
       <c r="F4378" s="5"/>
       <c r="G4378" s="5"/>
@@ -39930,7 +39939,7 @@
       <c r="A4387" s="5"/>
       <c r="B4387" s="5"/>
       <c r="C4387" s="5"/>
-      <c r="D4387" s="6"/>
+      <c r="D4387" s="4"/>
       <c r="E4387" s="5"/>
       <c r="F4387" s="5"/>
       <c r="G4387" s="5"/>
@@ -40092,7 +40101,7 @@
       <c r="A4405" s="5"/>
       <c r="B4405" s="5"/>
       <c r="C4405" s="5"/>
-      <c r="D4405" s="6"/>
+      <c r="D4405" s="4"/>
       <c r="E4405" s="5"/>
       <c r="F4405" s="5"/>
       <c r="G4405" s="5"/>
@@ -40146,7 +40155,7 @@
       <c r="A4411" s="5"/>
       <c r="B4411" s="5"/>
       <c r="C4411" s="5"/>
-      <c r="D4411" s="6"/>
+      <c r="D4411" s="4"/>
       <c r="E4411" s="5"/>
       <c r="F4411" s="5"/>
       <c r="G4411" s="5"/>
@@ -40326,7 +40335,7 @@
       <c r="A4431" s="5"/>
       <c r="B4431" s="5"/>
       <c r="C4431" s="5"/>
-      <c r="D4431" s="6"/>
+      <c r="D4431" s="4"/>
       <c r="E4431" s="5"/>
       <c r="F4431" s="5"/>
       <c r="G4431" s="5"/>
@@ -40533,7 +40542,7 @@
       <c r="A4454" s="5"/>
       <c r="B4454" s="5"/>
       <c r="C4454" s="5"/>
-      <c r="D4454" s="6"/>
+      <c r="D4454" s="4"/>
       <c r="E4454" s="5"/>
       <c r="F4454" s="5"/>
       <c r="G4454" s="5"/>
@@ -40623,7 +40632,7 @@
       <c r="A4464" s="5"/>
       <c r="B4464" s="5"/>
       <c r="C4464" s="5"/>
-      <c r="D4464" s="6"/>
+      <c r="D4464" s="4"/>
       <c r="E4464" s="5"/>
       <c r="F4464" s="5"/>
       <c r="G4464" s="5"/>
@@ -40659,7 +40668,7 @@
       <c r="A4468" s="5"/>
       <c r="B4468" s="5"/>
       <c r="C4468" s="5"/>
-      <c r="D4468" s="6"/>
+      <c r="D4468" s="4"/>
       <c r="E4468" s="5"/>
       <c r="F4468" s="5"/>
       <c r="G4468" s="5"/>
@@ -40677,7 +40686,7 @@
       <c r="A4470" s="5"/>
       <c r="B4470" s="5"/>
       <c r="C4470" s="5"/>
-      <c r="D4470" s="6"/>
+      <c r="D4470" s="4"/>
       <c r="E4470" s="5"/>
       <c r="F4470" s="5"/>
       <c r="G4470" s="5"/>
@@ -40704,7 +40713,7 @@
       <c r="A4473" s="5"/>
       <c r="B4473" s="5"/>
       <c r="C4473" s="5"/>
-      <c r="D4473" s="6"/>
+      <c r="D4473" s="4"/>
       <c r="E4473" s="5"/>
       <c r="F4473" s="5"/>
       <c r="G4473" s="5"/>
@@ -40731,7 +40740,7 @@
       <c r="A4476" s="5"/>
       <c r="B4476" s="5"/>
       <c r="C4476" s="5"/>
-      <c r="D4476" s="6"/>
+      <c r="D4476" s="4"/>
       <c r="E4476" s="5"/>
       <c r="F4476" s="5"/>
       <c r="G4476" s="5"/>
@@ -40740,8 +40749,8 @@
       <c r="A4477" s="5"/>
       <c r="B4477" s="5"/>
       <c r="C4477" s="5"/>
-      <c r="D4477" s="6"/>
-      <c r="E4477" s="6"/>
+      <c r="D4477" s="4"/>
+      <c r="E4477" s="4"/>
       <c r="F4477" s="5"/>
       <c r="G4477" s="5"/>
     </row>
@@ -40784,7 +40793,7 @@
     <row r="4482" spans="1:7" s="3" customFormat="1">
       <c r="A4482" s="5"/>
       <c r="B4482" s="5"/>
-      <c r="C4482" s="6"/>
+      <c r="C4482" s="4"/>
       <c r="D4482" s="5"/>
       <c r="E4482" s="5"/>
       <c r="F4482" s="5"/>
@@ -40794,7 +40803,7 @@
       <c r="A4483" s="5"/>
       <c r="B4483" s="5"/>
       <c r="C4483" s="5"/>
-      <c r="D4483" s="6"/>
+      <c r="D4483" s="4"/>
       <c r="E4483" s="5"/>
       <c r="F4483" s="5"/>
       <c r="G4483" s="5"/>
@@ -40803,7 +40812,7 @@
       <c r="A4484" s="5"/>
       <c r="B4484" s="5"/>
       <c r="C4484" s="5"/>
-      <c r="D4484" s="6"/>
+      <c r="D4484" s="4"/>
       <c r="E4484" s="5"/>
       <c r="F4484" s="5"/>
       <c r="G4484" s="5"/>
@@ -40812,7 +40821,7 @@
       <c r="A4485" s="5"/>
       <c r="B4485" s="5"/>
       <c r="C4485" s="5"/>
-      <c r="D4485" s="8"/>
+      <c r="D4485" s="7"/>
       <c r="E4485" s="5"/>
       <c r="F4485" s="5"/>
       <c r="G4485" s="5"/>
@@ -40830,7 +40839,7 @@
       <c r="A4487" s="5"/>
       <c r="B4487" s="5"/>
       <c r="C4487" s="5"/>
-      <c r="D4487" s="6"/>
+      <c r="D4487" s="4"/>
       <c r="E4487" s="5"/>
       <c r="F4487" s="5"/>
       <c r="G4487" s="5"/>
@@ -40902,7 +40911,7 @@
       <c r="A4495" s="5"/>
       <c r="B4495" s="5"/>
       <c r="C4495" s="5"/>
-      <c r="D4495" s="6"/>
+      <c r="D4495" s="4"/>
       <c r="E4495" s="5"/>
       <c r="F4495" s="5"/>
       <c r="G4495" s="5"/>
@@ -40956,7 +40965,7 @@
       <c r="A4501" s="5"/>
       <c r="B4501" s="5"/>
       <c r="C4501" s="5"/>
-      <c r="D4501" s="6"/>
+      <c r="D4501" s="4"/>
       <c r="E4501" s="5"/>
       <c r="F4501" s="5"/>
       <c r="G4501" s="5"/>
@@ -40966,7 +40975,7 @@
       <c r="B4502" s="5"/>
       <c r="C4502" s="5"/>
       <c r="D4502" s="5"/>
-      <c r="E4502" s="6"/>
+      <c r="E4502" s="4"/>
       <c r="F4502" s="5"/>
       <c r="G4502" s="5"/>
     </row>
@@ -40983,7 +40992,7 @@
       <c r="A4504" s="5"/>
       <c r="B4504" s="5"/>
       <c r="C4504" s="5"/>
-      <c r="D4504" s="6"/>
+      <c r="D4504" s="4"/>
       <c r="E4504" s="5"/>
       <c r="F4504" s="5"/>
       <c r="G4504" s="5"/>
@@ -40993,7 +41002,7 @@
       <c r="B4505" s="5"/>
       <c r="C4505" s="5"/>
       <c r="D4505" s="5"/>
-      <c r="E4505" s="6"/>
+      <c r="E4505" s="4"/>
       <c r="F4505" s="5"/>
       <c r="G4505" s="5"/>
     </row>
@@ -41010,7 +41019,7 @@
       <c r="A4507" s="5"/>
       <c r="B4507" s="5"/>
       <c r="C4507" s="5"/>
-      <c r="D4507" s="6"/>
+      <c r="D4507" s="4"/>
       <c r="E4507" s="5"/>
       <c r="F4507" s="5"/>
       <c r="G4507" s="5"/>
@@ -41019,7 +41028,7 @@
       <c r="A4508" s="5"/>
       <c r="B4508" s="5"/>
       <c r="C4508" s="5"/>
-      <c r="D4508" s="6"/>
+      <c r="D4508" s="4"/>
       <c r="E4508" s="5"/>
       <c r="F4508" s="5"/>
       <c r="G4508" s="5"/>
@@ -41036,7 +41045,7 @@
     <row r="4510" spans="1:7" s="3" customFormat="1">
       <c r="A4510" s="5"/>
       <c r="B4510" s="5"/>
-      <c r="C4510" s="6"/>
+      <c r="C4510" s="4"/>
       <c r="D4510" s="5"/>
       <c r="E4510" s="5"/>
       <c r="F4510" s="5"/>
@@ -41046,7 +41055,7 @@
       <c r="A4511" s="5"/>
       <c r="B4511" s="5"/>
       <c r="C4511" s="5"/>
-      <c r="D4511" s="6"/>
+      <c r="D4511" s="4"/>
       <c r="E4511" s="5"/>
       <c r="F4511" s="5"/>
       <c r="G4511" s="5"/>
@@ -41055,7 +41064,7 @@
       <c r="A4512" s="5"/>
       <c r="B4512" s="5"/>
       <c r="C4512" s="5"/>
-      <c r="D4512" s="6"/>
+      <c r="D4512" s="4"/>
       <c r="E4512" s="5"/>
       <c r="F4512" s="5"/>
       <c r="G4512" s="5"/>
@@ -41064,8 +41073,8 @@
       <c r="A4513" s="5"/>
       <c r="B4513" s="5"/>
       <c r="C4513" s="5"/>
-      <c r="D4513" s="6"/>
-      <c r="E4513" s="6"/>
+      <c r="D4513" s="4"/>
+      <c r="E4513" s="4"/>
       <c r="F4513" s="5"/>
       <c r="G4513" s="5"/>
     </row>
@@ -41073,8 +41082,8 @@
       <c r="A4514" s="5"/>
       <c r="B4514" s="5"/>
       <c r="C4514" s="5"/>
-      <c r="D4514" s="6"/>
-      <c r="E4514" s="6"/>
+      <c r="D4514" s="4"/>
+      <c r="E4514" s="4"/>
       <c r="F4514" s="5"/>
       <c r="G4514" s="5"/>
     </row>
@@ -41082,8 +41091,8 @@
       <c r="A4515" s="5"/>
       <c r="B4515" s="5"/>
       <c r="C4515" s="5"/>
-      <c r="D4515" s="6"/>
-      <c r="E4515" s="6"/>
+      <c r="D4515" s="4"/>
+      <c r="E4515" s="4"/>
       <c r="F4515" s="5"/>
       <c r="G4515" s="5"/>
     </row>
@@ -41091,8 +41100,8 @@
       <c r="A4516" s="5"/>
       <c r="B4516" s="5"/>
       <c r="C4516" s="5"/>
-      <c r="D4516" s="6"/>
-      <c r="E4516" s="6"/>
+      <c r="D4516" s="4"/>
+      <c r="E4516" s="4"/>
       <c r="F4516" s="5"/>
       <c r="G4516" s="5"/>
     </row>
@@ -41100,8 +41109,8 @@
       <c r="A4517" s="5"/>
       <c r="B4517" s="5"/>
       <c r="C4517" s="5"/>
-      <c r="D4517" s="6"/>
-      <c r="E4517" s="6"/>
+      <c r="D4517" s="4"/>
+      <c r="E4517" s="4"/>
       <c r="F4517" s="5"/>
       <c r="G4517" s="5"/>
     </row>
@@ -41109,8 +41118,8 @@
       <c r="A4518" s="5"/>
       <c r="B4518" s="5"/>
       <c r="C4518" s="5"/>
-      <c r="D4518" s="6"/>
-      <c r="E4518" s="6"/>
+      <c r="D4518" s="4"/>
+      <c r="E4518" s="4"/>
       <c r="F4518" s="5"/>
       <c r="G4518" s="5"/>
     </row>
@@ -41118,8 +41127,8 @@
       <c r="A4519" s="5"/>
       <c r="B4519" s="5"/>
       <c r="C4519" s="5"/>
-      <c r="D4519" s="6"/>
-      <c r="E4519" s="6"/>
+      <c r="D4519" s="4"/>
+      <c r="E4519" s="4"/>
       <c r="F4519" s="5"/>
       <c r="G4519" s="5"/>
     </row>
@@ -41127,8 +41136,8 @@
       <c r="A4520" s="5"/>
       <c r="B4520" s="5"/>
       <c r="C4520" s="5"/>
-      <c r="D4520" s="6"/>
-      <c r="E4520" s="6"/>
+      <c r="D4520" s="4"/>
+      <c r="E4520" s="4"/>
       <c r="F4520" s="5"/>
       <c r="G4520" s="5"/>
     </row>
@@ -41136,8 +41145,8 @@
       <c r="A4521" s="5"/>
       <c r="B4521" s="5"/>
       <c r="C4521" s="5"/>
-      <c r="D4521" s="6"/>
-      <c r="E4521" s="6"/>
+      <c r="D4521" s="4"/>
+      <c r="E4521" s="4"/>
       <c r="F4521" s="5"/>
       <c r="G4521" s="5"/>
     </row>
@@ -41154,7 +41163,7 @@
       <c r="A4523" s="5"/>
       <c r="B4523" s="5"/>
       <c r="C4523" s="5"/>
-      <c r="D4523" s="6"/>
+      <c r="D4523" s="4"/>
       <c r="E4523" s="5"/>
       <c r="F4523" s="5"/>
       <c r="G4523" s="5"/>
@@ -41163,7 +41172,7 @@
       <c r="A4524" s="5"/>
       <c r="B4524" s="5"/>
       <c r="C4524" s="5"/>
-      <c r="D4524" s="6"/>
+      <c r="D4524" s="4"/>
       <c r="E4524" s="5"/>
       <c r="F4524" s="5"/>
       <c r="G4524" s="5"/>
@@ -41172,8 +41181,8 @@
       <c r="A4525" s="5"/>
       <c r="B4525" s="5"/>
       <c r="C4525" s="5"/>
-      <c r="D4525" s="6"/>
-      <c r="E4525" s="6"/>
+      <c r="D4525" s="4"/>
+      <c r="E4525" s="4"/>
       <c r="F4525" s="5"/>
       <c r="G4525" s="5"/>
     </row>
@@ -41181,7 +41190,7 @@
       <c r="A4526" s="5"/>
       <c r="B4526" s="5"/>
       <c r="C4526" s="5"/>
-      <c r="D4526" s="6"/>
+      <c r="D4526" s="4"/>
       <c r="E4526" s="5"/>
       <c r="F4526" s="5"/>
       <c r="G4526" s="5"/>
@@ -41190,8 +41199,8 @@
       <c r="A4527" s="5"/>
       <c r="B4527" s="5"/>
       <c r="C4527" s="5"/>
-      <c r="D4527" s="6"/>
-      <c r="E4527" s="6"/>
+      <c r="D4527" s="4"/>
+      <c r="E4527" s="4"/>
       <c r="F4527" s="5"/>
       <c r="G4527" s="5"/>
     </row>
@@ -41199,7 +41208,7 @@
       <c r="A4528" s="5"/>
       <c r="B4528" s="5"/>
       <c r="C4528" s="5"/>
-      <c r="D4528" s="6"/>
+      <c r="D4528" s="4"/>
       <c r="E4528" s="5"/>
       <c r="F4528" s="5"/>
       <c r="G4528" s="5"/>
@@ -41208,8 +41217,8 @@
       <c r="A4529" s="5"/>
       <c r="B4529" s="5"/>
       <c r="C4529" s="5"/>
-      <c r="D4529" s="6"/>
-      <c r="E4529" s="6"/>
+      <c r="D4529" s="4"/>
+      <c r="E4529" s="4"/>
       <c r="F4529" s="5"/>
       <c r="G4529" s="5"/>
     </row>
@@ -41217,7 +41226,7 @@
       <c r="A4530" s="5"/>
       <c r="B4530" s="5"/>
       <c r="C4530" s="5"/>
-      <c r="D4530" s="6"/>
+      <c r="D4530" s="4"/>
       <c r="E4530" s="5"/>
       <c r="F4530" s="5"/>
       <c r="G4530" s="5"/>
@@ -41226,8 +41235,8 @@
       <c r="A4531" s="5"/>
       <c r="B4531" s="5"/>
       <c r="C4531" s="5"/>
-      <c r="D4531" s="6"/>
-      <c r="E4531" s="6"/>
+      <c r="D4531" s="4"/>
+      <c r="E4531" s="4"/>
       <c r="F4531" s="5"/>
       <c r="G4531" s="5"/>
     </row>
@@ -41235,7 +41244,7 @@
       <c r="A4532" s="5"/>
       <c r="B4532" s="5"/>
       <c r="C4532" s="5"/>
-      <c r="D4532" s="6"/>
+      <c r="D4532" s="4"/>
       <c r="E4532" s="5"/>
       <c r="F4532" s="5"/>
       <c r="G4532" s="5"/>
@@ -41244,8 +41253,8 @@
       <c r="A4533" s="5"/>
       <c r="B4533" s="5"/>
       <c r="C4533" s="5"/>
-      <c r="D4533" s="6"/>
-      <c r="E4533" s="6"/>
+      <c r="D4533" s="4"/>
+      <c r="E4533" s="4"/>
       <c r="F4533" s="5"/>
       <c r="G4533" s="5"/>
     </row>
@@ -41253,7 +41262,7 @@
       <c r="A4534" s="5"/>
       <c r="B4534" s="5"/>
       <c r="C4534" s="5"/>
-      <c r="D4534" s="6"/>
+      <c r="D4534" s="4"/>
       <c r="E4534" s="5"/>
       <c r="F4534" s="5"/>
       <c r="G4534" s="5"/>
@@ -41262,8 +41271,8 @@
       <c r="A4535" s="5"/>
       <c r="B4535" s="5"/>
       <c r="C4535" s="5"/>
-      <c r="D4535" s="6"/>
-      <c r="E4535" s="6"/>
+      <c r="D4535" s="4"/>
+      <c r="E4535" s="4"/>
       <c r="F4535" s="5"/>
       <c r="G4535" s="5"/>
     </row>
@@ -41271,7 +41280,7 @@
       <c r="A4536" s="5"/>
       <c r="B4536" s="5"/>
       <c r="C4536" s="5"/>
-      <c r="D4536" s="6"/>
+      <c r="D4536" s="4"/>
       <c r="E4536" s="5"/>
       <c r="F4536" s="5"/>
       <c r="G4536" s="5"/>
@@ -41280,8 +41289,8 @@
       <c r="A4537" s="5"/>
       <c r="B4537" s="5"/>
       <c r="C4537" s="5"/>
-      <c r="D4537" s="6"/>
-      <c r="E4537" s="6"/>
+      <c r="D4537" s="4"/>
+      <c r="E4537" s="4"/>
       <c r="F4537" s="5"/>
       <c r="G4537" s="5"/>
     </row>
@@ -41307,7 +41316,7 @@
       <c r="A4540" s="5"/>
       <c r="B4540" s="5"/>
       <c r="C4540" s="5"/>
-      <c r="D4540" s="6"/>
+      <c r="D4540" s="4"/>
       <c r="E4540" s="5"/>
       <c r="F4540" s="5"/>
       <c r="G4540" s="5"/>
@@ -41352,7 +41361,7 @@
       <c r="A4545" s="5"/>
       <c r="B4545" s="5"/>
       <c r="C4545" s="5"/>
-      <c r="D4545" s="6"/>
+      <c r="D4545" s="4"/>
       <c r="E4545" s="5"/>
       <c r="F4545" s="5"/>
       <c r="G4545" s="5"/>
@@ -41361,7 +41370,7 @@
       <c r="A4546" s="5"/>
       <c r="B4546" s="5"/>
       <c r="C4546" s="5"/>
-      <c r="D4546" s="6"/>
+      <c r="D4546" s="4"/>
       <c r="E4546" s="5"/>
       <c r="F4546" s="5"/>
       <c r="G4546" s="5"/>
@@ -41370,8 +41379,8 @@
       <c r="A4547" s="5"/>
       <c r="B4547" s="5"/>
       <c r="C4547" s="5"/>
-      <c r="D4547" s="6"/>
-      <c r="E4547" s="6"/>
+      <c r="D4547" s="4"/>
+      <c r="E4547" s="4"/>
       <c r="F4547" s="5"/>
       <c r="G4547" s="5"/>
     </row>
@@ -41379,7 +41388,7 @@
       <c r="A4548" s="5"/>
       <c r="B4548" s="5"/>
       <c r="C4548" s="5"/>
-      <c r="D4548" s="6"/>
+      <c r="D4548" s="4"/>
       <c r="E4548" s="5"/>
       <c r="F4548" s="5"/>
       <c r="G4548" s="5"/>
@@ -41388,8 +41397,8 @@
       <c r="A4549" s="5"/>
       <c r="B4549" s="5"/>
       <c r="C4549" s="5"/>
-      <c r="D4549" s="6"/>
-      <c r="E4549" s="6"/>
+      <c r="D4549" s="4"/>
+      <c r="E4549" s="4"/>
       <c r="F4549" s="5"/>
       <c r="G4549" s="5"/>
     </row>
@@ -41397,7 +41406,7 @@
       <c r="A4550" s="5"/>
       <c r="B4550" s="5"/>
       <c r="C4550" s="5"/>
-      <c r="D4550" s="6"/>
+      <c r="D4550" s="4"/>
       <c r="E4550" s="5"/>
       <c r="F4550" s="5"/>
       <c r="G4550" s="5"/>
@@ -41406,8 +41415,8 @@
       <c r="A4551" s="5"/>
       <c r="B4551" s="5"/>
       <c r="C4551" s="5"/>
-      <c r="D4551" s="6"/>
-      <c r="E4551" s="6"/>
+      <c r="D4551" s="4"/>
+      <c r="E4551" s="4"/>
       <c r="F4551" s="5"/>
       <c r="G4551" s="5"/>
     </row>
@@ -41415,7 +41424,7 @@
       <c r="A4552" s="5"/>
       <c r="B4552" s="5"/>
       <c r="C4552" s="5"/>
-      <c r="D4552" s="6"/>
+      <c r="D4552" s="4"/>
       <c r="E4552" s="5"/>
       <c r="F4552" s="5"/>
       <c r="G4552" s="5"/>
@@ -41424,8 +41433,8 @@
       <c r="A4553" s="5"/>
       <c r="B4553" s="5"/>
       <c r="C4553" s="5"/>
-      <c r="D4553" s="6"/>
-      <c r="E4553" s="6"/>
+      <c r="D4553" s="4"/>
+      <c r="E4553" s="4"/>
       <c r="F4553" s="5"/>
       <c r="G4553" s="5"/>
     </row>
@@ -41433,7 +41442,7 @@
       <c r="A4554" s="5"/>
       <c r="B4554" s="5"/>
       <c r="C4554" s="5"/>
-      <c r="D4554" s="6"/>
+      <c r="D4554" s="4"/>
       <c r="E4554" s="5"/>
       <c r="F4554" s="5"/>
       <c r="G4554" s="5"/>
@@ -41442,8 +41451,8 @@
       <c r="A4555" s="5"/>
       <c r="B4555" s="5"/>
       <c r="C4555" s="5"/>
-      <c r="D4555" s="6"/>
-      <c r="E4555" s="6"/>
+      <c r="D4555" s="4"/>
+      <c r="E4555" s="4"/>
       <c r="F4555" s="5"/>
       <c r="G4555" s="5"/>
     </row>
@@ -41451,7 +41460,7 @@
       <c r="A4556" s="5"/>
       <c r="B4556" s="5"/>
       <c r="C4556" s="5"/>
-      <c r="D4556" s="6"/>
+      <c r="D4556" s="4"/>
       <c r="E4556" s="5"/>
       <c r="F4556" s="5"/>
       <c r="G4556" s="5"/>
@@ -41460,8 +41469,8 @@
       <c r="A4557" s="5"/>
       <c r="B4557" s="5"/>
       <c r="C4557" s="5"/>
-      <c r="D4557" s="6"/>
-      <c r="E4557" s="6"/>
+      <c r="D4557" s="4"/>
+      <c r="E4557" s="4"/>
       <c r="F4557" s="5"/>
       <c r="G4557" s="5"/>
     </row>
@@ -41469,7 +41478,7 @@
       <c r="A4558" s="5"/>
       <c r="B4558" s="5"/>
       <c r="C4558" s="5"/>
-      <c r="D4558" s="6"/>
+      <c r="D4558" s="4"/>
       <c r="E4558" s="5"/>
       <c r="F4558" s="5"/>
       <c r="G4558" s="5"/>
@@ -41478,8 +41487,8 @@
       <c r="A4559" s="5"/>
       <c r="B4559" s="5"/>
       <c r="C4559" s="5"/>
-      <c r="D4559" s="6"/>
-      <c r="E4559" s="6"/>
+      <c r="D4559" s="4"/>
+      <c r="E4559" s="4"/>
       <c r="F4559" s="5"/>
       <c r="G4559" s="5"/>
     </row>
@@ -41487,7 +41496,7 @@
       <c r="A4560" s="5"/>
       <c r="B4560" s="5"/>
       <c r="C4560" s="5"/>
-      <c r="D4560" s="6"/>
+      <c r="D4560" s="4"/>
       <c r="E4560" s="5"/>
       <c r="F4560" s="5"/>
       <c r="G4560" s="5"/>
@@ -41496,8 +41505,8 @@
       <c r="A4561" s="5"/>
       <c r="B4561" s="5"/>
       <c r="C4561" s="5"/>
-      <c r="D4561" s="6"/>
-      <c r="E4561" s="6"/>
+      <c r="D4561" s="4"/>
+      <c r="E4561" s="4"/>
       <c r="F4561" s="5"/>
       <c r="G4561" s="5"/>
     </row>
@@ -41505,7 +41514,7 @@
       <c r="A4562" s="5"/>
       <c r="B4562" s="5"/>
       <c r="C4562" s="5"/>
-      <c r="D4562" s="6"/>
+      <c r="D4562" s="4"/>
       <c r="E4562" s="5"/>
       <c r="F4562" s="5"/>
       <c r="G4562" s="5"/>
@@ -41514,8 +41523,8 @@
       <c r="A4563" s="5"/>
       <c r="B4563" s="5"/>
       <c r="C4563" s="5"/>
-      <c r="D4563" s="6"/>
-      <c r="E4563" s="6"/>
+      <c r="D4563" s="4"/>
+      <c r="E4563" s="4"/>
       <c r="F4563" s="5"/>
       <c r="G4563" s="5"/>
     </row>
@@ -41523,7 +41532,7 @@
       <c r="A4564" s="5"/>
       <c r="B4564" s="5"/>
       <c r="C4564" s="5"/>
-      <c r="D4564" s="6"/>
+      <c r="D4564" s="4"/>
       <c r="E4564" s="5"/>
       <c r="F4564" s="5"/>
       <c r="G4564" s="5"/>
@@ -41532,8 +41541,8 @@
       <c r="A4565" s="5"/>
       <c r="B4565" s="5"/>
       <c r="C4565" s="5"/>
-      <c r="D4565" s="6"/>
-      <c r="E4565" s="6"/>
+      <c r="D4565" s="4"/>
+      <c r="E4565" s="4"/>
       <c r="F4565" s="5"/>
       <c r="G4565" s="5"/>
     </row>
@@ -41541,7 +41550,7 @@
       <c r="A4566" s="5"/>
       <c r="B4566" s="5"/>
       <c r="C4566" s="5"/>
-      <c r="D4566" s="6"/>
+      <c r="D4566" s="4"/>
       <c r="E4566" s="5"/>
       <c r="F4566" s="5"/>
       <c r="G4566" s="5"/>
@@ -41550,8 +41559,8 @@
       <c r="A4567" s="5"/>
       <c r="B4567" s="5"/>
       <c r="C4567" s="5"/>
-      <c r="D4567" s="6"/>
-      <c r="E4567" s="6"/>
+      <c r="D4567" s="4"/>
+      <c r="E4567" s="4"/>
       <c r="F4567" s="5"/>
       <c r="G4567" s="5"/>
     </row>
@@ -41559,7 +41568,7 @@
       <c r="A4568" s="5"/>
       <c r="B4568" s="5"/>
       <c r="C4568" s="5"/>
-      <c r="D4568" s="6"/>
+      <c r="D4568" s="4"/>
       <c r="E4568" s="5"/>
       <c r="F4568" s="5"/>
       <c r="G4568" s="5"/>
@@ -41568,8 +41577,8 @@
       <c r="A4569" s="5"/>
       <c r="B4569" s="5"/>
       <c r="C4569" s="5"/>
-      <c r="D4569" s="6"/>
-      <c r="E4569" s="6"/>
+      <c r="D4569" s="4"/>
+      <c r="E4569" s="4"/>
       <c r="F4569" s="5"/>
       <c r="G4569" s="5"/>
     </row>
@@ -41577,7 +41586,7 @@
       <c r="A4570" s="5"/>
       <c r="B4570" s="5"/>
       <c r="C4570" s="5"/>
-      <c r="D4570" s="6"/>
+      <c r="D4570" s="4"/>
       <c r="E4570" s="5"/>
       <c r="F4570" s="5"/>
       <c r="G4570" s="5"/>
@@ -41595,7 +41604,7 @@
       <c r="A4572" s="5"/>
       <c r="B4572" s="5"/>
       <c r="C4572" s="5"/>
-      <c r="D4572" s="6"/>
+      <c r="D4572" s="4"/>
       <c r="E4572" s="5"/>
       <c r="F4572" s="5"/>
       <c r="G4572" s="5"/>
@@ -41631,7 +41640,7 @@
       <c r="A4576" s="5"/>
       <c r="B4576" s="5"/>
       <c r="C4576" s="5"/>
-      <c r="D4576" s="6"/>
+      <c r="D4576" s="4"/>
       <c r="E4576" s="5"/>
       <c r="F4576" s="5"/>
       <c r="G4576" s="5"/>
@@ -41640,8 +41649,8 @@
       <c r="A4577" s="5"/>
       <c r="B4577" s="5"/>
       <c r="C4577" s="5"/>
-      <c r="D4577" s="6"/>
-      <c r="E4577" s="6"/>
+      <c r="D4577" s="4"/>
+      <c r="E4577" s="4"/>
       <c r="F4577" s="5"/>
       <c r="G4577" s="5"/>
     </row>
@@ -41649,8 +41658,8 @@
       <c r="A4578" s="5"/>
       <c r="B4578" s="5"/>
       <c r="C4578" s="5"/>
-      <c r="D4578" s="6"/>
-      <c r="E4578" s="6"/>
+      <c r="D4578" s="4"/>
+      <c r="E4578" s="4"/>
       <c r="F4578" s="5"/>
       <c r="G4578" s="5"/>
     </row>
@@ -41658,8 +41667,8 @@
       <c r="A4579" s="5"/>
       <c r="B4579" s="5"/>
       <c r="C4579" s="5"/>
-      <c r="D4579" s="6"/>
-      <c r="E4579" s="6"/>
+      <c r="D4579" s="4"/>
+      <c r="E4579" s="4"/>
       <c r="F4579" s="5"/>
       <c r="G4579" s="5"/>
     </row>
@@ -41694,7 +41703,7 @@
       <c r="A4583" s="5"/>
       <c r="B4583" s="5"/>
       <c r="C4583" s="5"/>
-      <c r="D4583" s="6"/>
+      <c r="D4583" s="4"/>
       <c r="E4583" s="5"/>
       <c r="F4583" s="5"/>
       <c r="G4583" s="5"/>
@@ -41703,8 +41712,8 @@
       <c r="A4584" s="5"/>
       <c r="B4584" s="5"/>
       <c r="C4584" s="5"/>
-      <c r="D4584" s="6"/>
-      <c r="E4584" s="6"/>
+      <c r="D4584" s="4"/>
+      <c r="E4584" s="4"/>
       <c r="F4584" s="5"/>
       <c r="G4584" s="5"/>
     </row>
@@ -41748,7 +41757,7 @@
       <c r="A4589" s="5"/>
       <c r="B4589" s="5"/>
       <c r="C4589" s="5"/>
-      <c r="D4589" s="6"/>
+      <c r="D4589" s="4"/>
       <c r="E4589" s="5"/>
       <c r="F4589" s="5"/>
       <c r="G4589" s="5"/>
@@ -41802,7 +41811,7 @@
       <c r="A4595" s="5"/>
       <c r="B4595" s="5"/>
       <c r="C4595" s="5"/>
-      <c r="D4595" s="6"/>
+      <c r="D4595" s="4"/>
       <c r="E4595" s="5"/>
       <c r="F4595" s="5"/>
       <c r="G4595" s="5"/>
@@ -41847,7 +41856,7 @@
       <c r="A4600" s="5"/>
       <c r="B4600" s="5"/>
       <c r="C4600" s="5"/>
-      <c r="D4600" s="6"/>
+      <c r="D4600" s="4"/>
       <c r="E4600" s="5"/>
       <c r="F4600" s="5"/>
       <c r="G4600" s="5"/>
@@ -41856,7 +41865,7 @@
       <c r="A4601" s="5"/>
       <c r="B4601" s="5"/>
       <c r="C4601" s="5"/>
-      <c r="D4601" s="6"/>
+      <c r="D4601" s="4"/>
       <c r="E4601" s="5"/>
       <c r="F4601" s="5"/>
       <c r="G4601" s="5"/>
@@ -41865,8 +41874,8 @@
       <c r="A4602" s="5"/>
       <c r="B4602" s="5"/>
       <c r="C4602" s="5"/>
-      <c r="D4602" s="6"/>
-      <c r="E4602" s="6"/>
+      <c r="D4602" s="4"/>
+      <c r="E4602" s="4"/>
       <c r="F4602" s="5"/>
       <c r="G4602" s="5"/>
     </row>
@@ -41883,7 +41892,7 @@
       <c r="A4604" s="5"/>
       <c r="B4604" s="5"/>
       <c r="C4604" s="5"/>
-      <c r="D4604" s="6"/>
+      <c r="D4604" s="4"/>
       <c r="E4604" s="5"/>
       <c r="F4604" s="5"/>
       <c r="G4604" s="5"/>
@@ -41928,7 +41937,7 @@
       <c r="A4609" s="5"/>
       <c r="B4609" s="5"/>
       <c r="C4609" s="5"/>
-      <c r="D4609" s="6"/>
+      <c r="D4609" s="4"/>
       <c r="E4609" s="5"/>
       <c r="F4609" s="5"/>
       <c r="G4609" s="5"/>
@@ -41937,7 +41946,7 @@
       <c r="A4610" s="5"/>
       <c r="B4610" s="5"/>
       <c r="C4610" s="5"/>
-      <c r="D4610" s="6"/>
+      <c r="D4610" s="4"/>
       <c r="E4610" s="5"/>
       <c r="F4610" s="5"/>
       <c r="G4610" s="5"/>
@@ -41946,8 +41955,8 @@
       <c r="A4611" s="5"/>
       <c r="B4611" s="5"/>
       <c r="C4611" s="5"/>
-      <c r="D4611" s="6"/>
-      <c r="E4611" s="6"/>
+      <c r="D4611" s="4"/>
+      <c r="E4611" s="4"/>
       <c r="F4611" s="5"/>
       <c r="G4611" s="5"/>
     </row>
@@ -42009,7 +42018,7 @@
       <c r="A4618" s="5"/>
       <c r="B4618" s="5"/>
       <c r="C4618" s="5"/>
-      <c r="D4618" s="6"/>
+      <c r="D4618" s="4"/>
       <c r="E4618" s="5"/>
       <c r="F4618" s="5"/>
       <c r="G4618" s="5"/>
@@ -42036,7 +42045,7 @@
       <c r="A4621" s="5"/>
       <c r="B4621" s="5"/>
       <c r="C4621" s="5"/>
-      <c r="D4621" s="6"/>
+      <c r="D4621" s="4"/>
       <c r="E4621" s="5"/>
       <c r="F4621" s="5"/>
       <c r="G4621" s="5"/>
@@ -42063,7 +42072,7 @@
       <c r="A4624" s="5"/>
       <c r="B4624" s="5"/>
       <c r="C4624" s="5"/>
-      <c r="D4624" s="6"/>
+      <c r="D4624" s="4"/>
       <c r="E4624" s="5"/>
       <c r="F4624" s="5"/>
       <c r="G4624" s="5"/>
@@ -42081,7 +42090,7 @@
       <c r="A4626" s="5"/>
       <c r="B4626" s="5"/>
       <c r="C4626" s="5"/>
-      <c r="D4626" s="6"/>
+      <c r="D4626" s="4"/>
       <c r="E4626" s="5"/>
       <c r="F4626" s="5"/>
       <c r="G4626" s="5"/>
@@ -42091,7 +42100,7 @@
       <c r="B4627" s="5"/>
       <c r="C4627" s="5"/>
       <c r="D4627" s="5"/>
-      <c r="E4627" s="6"/>
+      <c r="E4627" s="4"/>
       <c r="F4627" s="5"/>
       <c r="G4627" s="5"/>
     </row>
@@ -42099,7 +42108,7 @@
       <c r="A4628" s="5"/>
       <c r="B4628" s="5"/>
       <c r="C4628" s="5"/>
-      <c r="D4628" s="6"/>
+      <c r="D4628" s="4"/>
       <c r="E4628" s="5"/>
       <c r="F4628" s="5"/>
       <c r="G4628" s="5"/>
@@ -42109,7 +42118,7 @@
       <c r="B4629" s="5"/>
       <c r="C4629" s="5"/>
       <c r="D4629" s="5"/>
-      <c r="E4629" s="6"/>
+      <c r="E4629" s="4"/>
       <c r="F4629" s="5"/>
       <c r="G4629" s="5"/>
     </row>
@@ -42117,7 +42126,7 @@
       <c r="A4630" s="5"/>
       <c r="B4630" s="5"/>
       <c r="C4630" s="5"/>
-      <c r="D4630" s="6"/>
+      <c r="D4630" s="4"/>
       <c r="E4630" s="5"/>
       <c r="F4630" s="5"/>
       <c r="G4630" s="5"/>
@@ -42127,7 +42136,7 @@
       <c r="B4631" s="5"/>
       <c r="C4631" s="5"/>
       <c r="D4631" s="5"/>
-      <c r="E4631" s="6"/>
+      <c r="E4631" s="4"/>
       <c r="F4631" s="5"/>
       <c r="G4631" s="5"/>
     </row>
@@ -42135,7 +42144,7 @@
       <c r="A4632" s="5"/>
       <c r="B4632" s="5"/>
       <c r="C4632" s="5"/>
-      <c r="D4632" s="6"/>
+      <c r="D4632" s="4"/>
       <c r="E4632" s="5"/>
       <c r="F4632" s="5"/>
       <c r="G4632" s="5"/>
@@ -42145,7 +42154,7 @@
       <c r="B4633" s="5"/>
       <c r="C4633" s="5"/>
       <c r="D4633" s="5"/>
-      <c r="E4633" s="6"/>
+      <c r="E4633" s="4"/>
       <c r="F4633" s="5"/>
       <c r="G4633" s="5"/>
     </row>
@@ -42180,7 +42189,7 @@
       <c r="A4637" s="5"/>
       <c r="B4637" s="5"/>
       <c r="C4637" s="5"/>
-      <c r="D4637" s="6"/>
+      <c r="D4637" s="4"/>
       <c r="E4637" s="5"/>
       <c r="F4637" s="5"/>
       <c r="G4637" s="5"/>
@@ -42216,7 +42225,7 @@
       <c r="A4641" s="5"/>
       <c r="B4641" s="5"/>
       <c r="C4641" s="5"/>
-      <c r="D4641" s="6"/>
+      <c r="D4641" s="4"/>
       <c r="E4641" s="5"/>
       <c r="F4641" s="5"/>
       <c r="G4641" s="5"/>
@@ -42378,7 +42387,7 @@
       <c r="A4659" s="5"/>
       <c r="B4659" s="5"/>
       <c r="C4659" s="5"/>
-      <c r="D4659" s="6"/>
+      <c r="D4659" s="4"/>
       <c r="E4659" s="5"/>
       <c r="F4659" s="5"/>
       <c r="G4659" s="5"/>
@@ -42388,7 +42397,7 @@
       <c r="B4660" s="5"/>
       <c r="C4660" s="5"/>
       <c r="D4660" s="5"/>
-      <c r="E4660" s="6"/>
+      <c r="E4660" s="4"/>
       <c r="F4660" s="5"/>
       <c r="G4660" s="5"/>
     </row>
@@ -42432,7 +42441,7 @@
       <c r="A4665" s="5"/>
       <c r="B4665" s="5"/>
       <c r="C4665" s="5"/>
-      <c r="D4665" s="6"/>
+      <c r="D4665" s="4"/>
       <c r="E4665" s="5"/>
       <c r="F4665" s="5"/>
       <c r="G4665" s="5"/>
@@ -42459,7 +42468,7 @@
       <c r="A4668" s="5"/>
       <c r="B4668" s="5"/>
       <c r="C4668" s="5"/>
-      <c r="D4668" s="6"/>
+      <c r="D4668" s="4"/>
       <c r="E4668" s="5"/>
       <c r="F4668" s="5"/>
       <c r="G4668" s="5"/>
@@ -42468,7 +42477,7 @@
       <c r="A4669" s="5"/>
       <c r="B4669" s="5"/>
       <c r="C4669" s="5"/>
-      <c r="D4669" s="6"/>
+      <c r="D4669" s="4"/>
       <c r="E4669" s="5"/>
       <c r="F4669" s="5"/>
       <c r="G4669" s="5"/>
@@ -42495,7 +42504,7 @@
       <c r="A4672" s="5"/>
       <c r="B4672" s="5"/>
       <c r="C4672" s="5"/>
-      <c r="D4672" s="6"/>
+      <c r="D4672" s="4"/>
       <c r="E4672" s="5"/>
       <c r="F4672" s="5"/>
       <c r="G4672" s="5"/>
@@ -42540,7 +42549,7 @@
       <c r="A4677" s="5"/>
       <c r="B4677" s="5"/>
       <c r="C4677" s="5"/>
-      <c r="D4677" s="6"/>
+      <c r="D4677" s="4"/>
       <c r="E4677" s="5"/>
       <c r="F4677" s="5"/>
       <c r="G4677" s="5"/>
@@ -42565,7 +42574,7 @@
     </row>
     <row r="4680" spans="1:7" s="3" customFormat="1">
       <c r="A4680" s="5"/>
-      <c r="B4680" s="6"/>
+      <c r="B4680" s="4"/>
       <c r="C4680" s="5"/>
       <c r="D4680" s="5"/>
       <c r="E4680" s="5"/>
@@ -42574,8 +42583,8 @@
     </row>
     <row r="4681" spans="1:7" s="3" customFormat="1">
       <c r="A4681" s="5"/>
-      <c r="B4681" s="6"/>
-      <c r="C4681" s="6"/>
+      <c r="B4681" s="4"/>
+      <c r="C4681" s="4"/>
       <c r="D4681" s="5"/>
       <c r="E4681" s="5"/>
       <c r="F4681" s="5"/>
@@ -42584,7 +42593,7 @@
     <row r="4682" spans="1:7" s="3" customFormat="1">
       <c r="A4682" s="5"/>
       <c r="B4682" s="5"/>
-      <c r="C4682" s="6"/>
+      <c r="C4682" s="4"/>
       <c r="D4682" s="5"/>
       <c r="E4682" s="5"/>
       <c r="F4682" s="5"/>
@@ -42593,8 +42602,8 @@
     <row r="4683" spans="1:7" s="3" customFormat="1">
       <c r="A4683" s="5"/>
       <c r="B4683" s="5"/>
-      <c r="C4683" s="6"/>
-      <c r="D4683" s="6"/>
+      <c r="C4683" s="4"/>
+      <c r="D4683" s="4"/>
       <c r="E4683" s="5"/>
       <c r="F4683" s="5"/>
       <c r="G4683" s="5"/>
@@ -42611,8 +42620,8 @@
     <row r="4685" spans="1:7" s="3" customFormat="1">
       <c r="A4685" s="5"/>
       <c r="B4685" s="5"/>
-      <c r="C4685" s="6"/>
-      <c r="D4685" s="6"/>
+      <c r="C4685" s="4"/>
+      <c r="D4685" s="4"/>
       <c r="E4685" s="5"/>
       <c r="F4685" s="5"/>
       <c r="G4685" s="5"/>
@@ -42629,8 +42638,8 @@
     <row r="4687" spans="1:7" s="3" customFormat="1">
       <c r="A4687" s="5"/>
       <c r="B4687" s="5"/>
-      <c r="C4687" s="6"/>
-      <c r="D4687" s="6"/>
+      <c r="C4687" s="4"/>
+      <c r="D4687" s="4"/>
       <c r="E4687" s="5"/>
       <c r="F4687" s="5"/>
       <c r="G4687" s="5"/>
@@ -42647,8 +42656,8 @@
     <row r="4689" spans="1:7" s="3" customFormat="1">
       <c r="A4689" s="5"/>
       <c r="B4689" s="5"/>
-      <c r="C4689" s="6"/>
-      <c r="D4689" s="6"/>
+      <c r="C4689" s="4"/>
+      <c r="D4689" s="4"/>
       <c r="E4689" s="5"/>
       <c r="F4689" s="5"/>
       <c r="G4689" s="5"/>
@@ -42665,8 +42674,8 @@
     <row r="4691" spans="1:7" s="3" customFormat="1">
       <c r="A4691" s="5"/>
       <c r="B4691" s="5"/>
-      <c r="C4691" s="6"/>
-      <c r="D4691" s="6"/>
+      <c r="C4691" s="4"/>
+      <c r="D4691" s="4"/>
       <c r="E4691" s="5"/>
       <c r="F4691" s="5"/>
       <c r="G4691" s="5"/>
@@ -42683,8 +42692,8 @@
     <row r="4693" spans="1:7" s="3" customFormat="1">
       <c r="A4693" s="5"/>
       <c r="B4693" s="5"/>
-      <c r="C4693" s="6"/>
-      <c r="D4693" s="6"/>
+      <c r="C4693" s="4"/>
+      <c r="D4693" s="4"/>
       <c r="E4693" s="5"/>
       <c r="F4693" s="5"/>
       <c r="G4693" s="5"/>
@@ -42701,8 +42710,8 @@
     <row r="4695" spans="1:7" s="3" customFormat="1">
       <c r="A4695" s="5"/>
       <c r="B4695" s="5"/>
-      <c r="C4695" s="6"/>
-      <c r="D4695" s="6"/>
+      <c r="C4695" s="4"/>
+      <c r="D4695" s="4"/>
       <c r="E4695" s="5"/>
       <c r="F4695" s="5"/>
       <c r="G4695" s="5"/>
@@ -42719,8 +42728,8 @@
     <row r="4697" spans="1:7" s="3" customFormat="1">
       <c r="A4697" s="5"/>
       <c r="B4697" s="5"/>
-      <c r="C4697" s="6"/>
-      <c r="D4697" s="6"/>
+      <c r="C4697" s="4"/>
+      <c r="D4697" s="4"/>
       <c r="E4697" s="5"/>
       <c r="F4697" s="5"/>
       <c r="G4697" s="5"/>
@@ -42737,8 +42746,8 @@
     <row r="4699" spans="1:7" s="3" customFormat="1">
       <c r="A4699" s="5"/>
       <c r="B4699" s="5"/>
-      <c r="C4699" s="6"/>
-      <c r="D4699" s="6"/>
+      <c r="C4699" s="4"/>
+      <c r="D4699" s="4"/>
       <c r="E4699" s="5"/>
       <c r="F4699" s="5"/>
       <c r="G4699" s="5"/>
@@ -42755,8 +42764,8 @@
     <row r="4701" spans="1:7" s="3" customFormat="1">
       <c r="A4701" s="5"/>
       <c r="B4701" s="5"/>
-      <c r="C4701" s="6"/>
-      <c r="D4701" s="6"/>
+      <c r="C4701" s="4"/>
+      <c r="D4701" s="4"/>
       <c r="E4701" s="5"/>
       <c r="F4701" s="5"/>
       <c r="G4701" s="5"/>
@@ -42773,8 +42782,8 @@
     <row r="4703" spans="1:7" s="3" customFormat="1">
       <c r="A4703" s="5"/>
       <c r="B4703" s="5"/>
-      <c r="C4703" s="6"/>
-      <c r="D4703" s="6"/>
+      <c r="C4703" s="4"/>
+      <c r="D4703" s="4"/>
       <c r="E4703" s="5"/>
       <c r="F4703" s="5"/>
       <c r="G4703" s="5"/>
@@ -42791,8 +42800,8 @@
     <row r="4705" spans="1:7" s="3" customFormat="1">
       <c r="A4705" s="5"/>
       <c r="B4705" s="5"/>
-      <c r="C4705" s="6"/>
-      <c r="D4705" s="6"/>
+      <c r="C4705" s="4"/>
+      <c r="D4705" s="4"/>
       <c r="E4705" s="5"/>
       <c r="F4705" s="5"/>
       <c r="G4705" s="5"/>
@@ -42809,8 +42818,8 @@
     <row r="4707" spans="1:7" s="3" customFormat="1">
       <c r="A4707" s="5"/>
       <c r="B4707" s="5"/>
-      <c r="C4707" s="6"/>
-      <c r="D4707" s="6"/>
+      <c r="C4707" s="4"/>
+      <c r="D4707" s="4"/>
       <c r="E4707" s="5"/>
       <c r="F4707" s="5"/>
       <c r="G4707" s="5"/>
@@ -42935,8 +42944,8 @@
     <row r="4721" spans="1:7" s="3" customFormat="1">
       <c r="A4721" s="5"/>
       <c r="B4721" s="5"/>
-      <c r="C4721" s="6"/>
-      <c r="D4721" s="6"/>
+      <c r="C4721" s="4"/>
+      <c r="D4721" s="4"/>
       <c r="E4721" s="5"/>
       <c r="F4721" s="5"/>
       <c r="G4721" s="5"/>
@@ -42962,8 +42971,8 @@
     <row r="4724" spans="1:7" s="3" customFormat="1">
       <c r="A4724" s="5"/>
       <c r="B4724" s="5"/>
-      <c r="C4724" s="6"/>
-      <c r="D4724" s="6"/>
+      <c r="C4724" s="4"/>
+      <c r="D4724" s="4"/>
       <c r="E4724" s="5"/>
       <c r="F4724" s="5"/>
       <c r="G4724" s="5"/>
@@ -42980,8 +42989,8 @@
     <row r="4726" spans="1:7" s="3" customFormat="1">
       <c r="A4726" s="5"/>
       <c r="B4726" s="5"/>
-      <c r="C4726" s="6"/>
-      <c r="D4726" s="6"/>
+      <c r="C4726" s="4"/>
+      <c r="D4726" s="4"/>
       <c r="E4726" s="5"/>
       <c r="F4726" s="5"/>
       <c r="G4726" s="5"/>
@@ -43052,7 +43061,7 @@
     <row r="4734" spans="1:7" s="3" customFormat="1">
       <c r="A4734" s="5"/>
       <c r="B4734" s="5"/>
-      <c r="C4734" s="6"/>
+      <c r="C4734" s="4"/>
       <c r="D4734" s="5"/>
       <c r="E4734" s="5"/>
       <c r="F4734" s="5"/>
@@ -43061,8 +43070,8 @@
     <row r="4735" spans="1:7" s="3" customFormat="1">
       <c r="A4735" s="5"/>
       <c r="B4735" s="5"/>
-      <c r="C4735" s="6"/>
-      <c r="D4735" s="6"/>
+      <c r="C4735" s="4"/>
+      <c r="D4735" s="4"/>
       <c r="E4735" s="5"/>
       <c r="F4735" s="5"/>
       <c r="G4735" s="5"/>
@@ -43071,7 +43080,7 @@
       <c r="A4736" s="5"/>
       <c r="B4736" s="5"/>
       <c r="C4736" s="5"/>
-      <c r="D4736" s="6"/>
+      <c r="D4736" s="4"/>
       <c r="E4736" s="5"/>
       <c r="F4736" s="5"/>
       <c r="G4736" s="5"/>
@@ -43403,7 +43412,7 @@
     <row r="4774" spans="1:7" s="3" customFormat="1">
       <c r="A4774" s="5"/>
       <c r="B4774" s="5"/>
-      <c r="C4774" s="6"/>
+      <c r="C4774" s="4"/>
       <c r="D4774" s="5"/>
       <c r="E4774" s="5"/>
       <c r="F4774" s="5"/>
@@ -43413,7 +43422,7 @@
       <c r="A4775" s="5"/>
       <c r="B4775" s="5"/>
       <c r="C4775" s="5"/>
-      <c r="D4775" s="6"/>
+      <c r="D4775" s="4"/>
       <c r="E4775" s="5"/>
       <c r="F4775" s="5"/>
       <c r="G4775" s="5"/>
@@ -43458,7 +43467,7 @@
       <c r="A4780" s="5"/>
       <c r="B4780" s="5"/>
       <c r="C4780" s="5"/>
-      <c r="D4780" s="6"/>
+      <c r="D4780" s="4"/>
       <c r="E4780" s="5"/>
       <c r="F4780" s="5"/>
       <c r="G4780" s="5"/>
@@ -43467,7 +43476,7 @@
       <c r="A4781" s="5"/>
       <c r="B4781" s="5"/>
       <c r="C4781" s="5"/>
-      <c r="D4781" s="6"/>
+      <c r="D4781" s="4"/>
       <c r="E4781" s="5"/>
       <c r="F4781" s="5"/>
       <c r="G4781" s="5"/>
@@ -43476,7 +43485,7 @@
       <c r="A4782" s="5"/>
       <c r="B4782" s="5"/>
       <c r="C4782" s="5"/>
-      <c r="D4782" s="6"/>
+      <c r="D4782" s="4"/>
       <c r="E4782" s="5"/>
       <c r="F4782" s="5"/>
       <c r="G4782" s="5"/>
@@ -43485,7 +43494,7 @@
       <c r="A4783" s="5"/>
       <c r="B4783" s="5"/>
       <c r="C4783" s="5"/>
-      <c r="D4783" s="6"/>
+      <c r="D4783" s="4"/>
       <c r="E4783" s="5"/>
       <c r="F4783" s="5"/>
       <c r="G4783" s="5"/>
@@ -43494,7 +43503,7 @@
       <c r="A4784" s="5"/>
       <c r="B4784" s="5"/>
       <c r="C4784" s="5"/>
-      <c r="D4784" s="6"/>
+      <c r="D4784" s="4"/>
       <c r="E4784" s="5"/>
       <c r="F4784" s="5"/>
       <c r="G4784" s="5"/>
@@ -43503,7 +43512,7 @@
       <c r="A4785" s="5"/>
       <c r="B4785" s="5"/>
       <c r="C4785" s="5"/>
-      <c r="D4785" s="6"/>
+      <c r="D4785" s="4"/>
       <c r="E4785" s="5"/>
       <c r="F4785" s="5"/>
       <c r="G4785" s="5"/>
@@ -43512,7 +43521,7 @@
       <c r="A4786" s="5"/>
       <c r="B4786" s="5"/>
       <c r="C4786" s="5"/>
-      <c r="D4786" s="6"/>
+      <c r="D4786" s="4"/>
       <c r="E4786" s="5"/>
       <c r="F4786" s="5"/>
       <c r="G4786" s="5"/>
@@ -43521,7 +43530,7 @@
       <c r="A4787" s="5"/>
       <c r="B4787" s="5"/>
       <c r="C4787" s="5"/>
-      <c r="D4787" s="6"/>
+      <c r="D4787" s="4"/>
       <c r="E4787" s="5"/>
       <c r="F4787" s="5"/>
       <c r="G4787" s="5"/>
@@ -43530,7 +43539,7 @@
       <c r="A4788" s="5"/>
       <c r="B4788" s="5"/>
       <c r="C4788" s="5"/>
-      <c r="D4788" s="6"/>
+      <c r="D4788" s="4"/>
       <c r="E4788" s="5"/>
       <c r="F4788" s="5"/>
       <c r="G4788" s="5"/>
@@ -43539,7 +43548,7 @@
       <c r="A4789" s="5"/>
       <c r="B4789" s="5"/>
       <c r="C4789" s="5"/>
-      <c r="D4789" s="6"/>
+      <c r="D4789" s="4"/>
       <c r="E4789" s="5"/>
       <c r="F4789" s="5"/>
       <c r="G4789" s="5"/>
@@ -43565,7 +43574,7 @@
     <row r="4792" spans="1:7" s="3" customFormat="1">
       <c r="A4792" s="5"/>
       <c r="B4792" s="5"/>
-      <c r="C4792" s="6"/>
+      <c r="C4792" s="4"/>
       <c r="D4792" s="5"/>
       <c r="E4792" s="5"/>
       <c r="F4792" s="5"/>
@@ -43575,7 +43584,7 @@
       <c r="A4793" s="5"/>
       <c r="B4793" s="5"/>
       <c r="C4793" s="5"/>
-      <c r="D4793" s="6"/>
+      <c r="D4793" s="4"/>
       <c r="E4793" s="5"/>
       <c r="F4793" s="5"/>
       <c r="G4793" s="5"/>
@@ -43584,7 +43593,7 @@
       <c r="A4794" s="5"/>
       <c r="B4794" s="5"/>
       <c r="C4794" s="5"/>
-      <c r="D4794" s="6"/>
+      <c r="D4794" s="4"/>
       <c r="E4794" s="5"/>
       <c r="F4794" s="5"/>
       <c r="G4794" s="5"/>
@@ -43593,7 +43602,7 @@
       <c r="A4795" s="5"/>
       <c r="B4795" s="5"/>
       <c r="C4795" s="5"/>
-      <c r="D4795" s="6"/>
+      <c r="D4795" s="4"/>
       <c r="E4795" s="5"/>
       <c r="F4795" s="5"/>
       <c r="G4795" s="5"/>
@@ -43602,7 +43611,7 @@
       <c r="A4796" s="5"/>
       <c r="B4796" s="5"/>
       <c r="C4796" s="5"/>
-      <c r="D4796" s="6"/>
+      <c r="D4796" s="4"/>
       <c r="E4796" s="5"/>
       <c r="F4796" s="5"/>
       <c r="G4796" s="5"/>

--- a/cbreader2X/Nav/seeland_nav.xlsx
+++ b/cbreader2X/Nav/seeland_nav.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E237F6-8474-446B-B055-418ADEDC456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054A34AE-BA46-4CFD-B6BA-5CE0EDA433DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="684" windowWidth="23040" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="684" windowWidth="22080" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -263,11 +263,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HM19,HM21</t>
+    <t>論文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>論文</t>
+    <t>HM17,HM21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +647,7 @@
   <dimension ref="A1:G4796"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.8"/>
@@ -1234,7 +1234,7 @@
     <row r="53" spans="1:7" s="2" customFormat="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1246,7 +1246,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
